--- a/lens data/PAOS_Input_TEMPLATE.xlsx
+++ b/lens data/PAOS_Input_TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" state="visible" r:id="rId2"/>
@@ -137,6 +137,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -158,12 +159,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,20 +224,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
@@ -247,14 +242,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -278,6 +265,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -289,6 +277,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -300,6 +289,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -311,6 +301,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -322,6 +313,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -333,6 +325,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -344,6 +337,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -355,6 +349,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
       </font>
       <fill>
@@ -434,13 +429,13 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.56"/>
   </cols>
@@ -457,15 +452,23 @@
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>512</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -497,13 +500,13 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -545,27 +548,24 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="W15" activeCellId="0" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="5.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="5.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="5" width="11.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="3" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="3" width="10.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="3" width="14.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="3" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="6.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="5.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="4" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,425 +575,441 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I10:P1048576 G1:G1048576 I1:P9">
